--- a/tabelas_template/TOUCH SAMSUNG.xlsx
+++ b/tabelas_template/TOUCH SAMSUNG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tonilson\Downloads\pdf_fabiano\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B299CBA-D0C1-4889-806C-F2BBD83E228E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F772E54A-894F-42A1-AA95-6FE42A9203E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="1950" windowWidth="8325" windowHeight="7785" xr2:uid="{1E1CB0CB-70DA-457B-A99A-D06353A87D59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1E1CB0CB-70DA-457B-A99A-D06353A87D59}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>TOUCH SAMSUNG</t>
   </si>
   <si>
     <t>G530</t>
-  </si>
-  <si>
-    <t>R$ 10,00</t>
   </si>
   <si>
     <t>G532</t>
@@ -58,6 +55,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -109,12 +109,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -434,7 +437,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="B3" sqref="B3:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,70 +446,70 @@
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>2</v>
+      <c r="B9" s="3">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
